--- a/RealWorldScalability/Results.xlsx
+++ b/RealWorldScalability/Results.xlsx
@@ -9,13 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7380" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16965" windowHeight="7380" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1 Small Instance" sheetId="1" r:id="rId1"/>
     <sheet name="4 Small Instances" sheetId="2" r:id="rId2"/>
     <sheet name="1 Large Instance" sheetId="3" r:id="rId3"/>
+    <sheet name="Find Primes" sheetId="4" r:id="rId4"/>
+    <sheet name="Get Proximity" sheetId="5" r:id="rId5"/>
+    <sheet name="Get Nearest" sheetId="6" r:id="rId6"/>
+    <sheet name="Calculate All" sheetId="7" r:id="rId7"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Calculate All'!$A$1:$E$7</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Find Primes'!$A$1:$G$13</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Get Proximity'!$A$1:$H$25</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -26,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="50">
   <si>
     <t>Test</t>
   </si>
@@ -117,6 +126,66 @@
   <si>
     <t>Test Time Delta</t>
   </si>
+  <si>
+    <t>CombinedTests (2)</t>
+  </si>
+  <si>
+    <t>CombinedTestsAsync (2)</t>
+  </si>
+  <si>
+    <t>CombinedTests (1)</t>
+  </si>
+  <si>
+    <t>CombinedTestsAsync (1)</t>
+  </si>
+  <si>
+    <t>Baseline</t>
+  </si>
+  <si>
+    <t>Stored</t>
+  </si>
+  <si>
+    <t>Cached/Stored 1</t>
+  </si>
+  <si>
+    <t>Cached/Stored 2</t>
+  </si>
+  <si>
+    <t>Async</t>
+  </si>
+  <si>
+    <t>Stored/Async</t>
+  </si>
+  <si>
+    <t>Cached/Stored/Async 1</t>
+  </si>
+  <si>
+    <t>Cached/Stored/Async 2</t>
+  </si>
+  <si>
+    <t>Scale</t>
+  </si>
+  <si>
+    <t>Cached</t>
+  </si>
+  <si>
+    <t>Cached/Async</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Out</t>
+  </si>
 </sst>
 </file>
 
@@ -179,7 +248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
@@ -189,6 +258,7 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -206,6 +276,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
@@ -489,11 +560,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H43"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,25 +580,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -748,7 +819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -767,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -778,7 +849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -797,7 +868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -816,7 +887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
@@ -835,448 +906,948 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="14">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="15">
         <f>AVERAGE(B25:B33)</f>
         <v>0.80222222222222206</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <f>SUM(C25:C33)</f>
         <v>6869</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="16">
         <f>B24*C24</f>
         <v>5510.464444444443</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>0.45</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <v>846</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <f t="shared" ref="D25:D43" si="4">B25*C25</f>
         <v>380.7</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>0.41</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <v>781</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <f t="shared" si="4"/>
         <v>320.20999999999998</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="E26" s="8">
+        <f>B26-B25</f>
+        <v>-4.0000000000000036E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f>C26-C25</f>
+        <v>-65</v>
+      </c>
+      <c r="G26" s="17">
+        <f>D26-D25</f>
+        <v>-60.490000000000009</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>0.63</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>797</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <f t="shared" si="4"/>
         <v>502.11</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="12"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>0.57999999999999996</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>861</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <f t="shared" si="4"/>
         <v>499.37999999999994</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="E28" s="8">
+        <f>B28-B27</f>
+        <v>-5.0000000000000044E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <f>C28-C27</f>
+        <v>64</v>
+      </c>
+      <c r="G28" s="17">
+        <f>D28-D27</f>
+        <v>-2.730000000000075</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>0.59</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>811</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <f t="shared" si="4"/>
         <v>478.48999999999995</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="E29" s="8">
+        <f t="shared" ref="E29:G30" si="5">B29-B28</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="5"/>
+        <v>-20.889999999999986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>0.6</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>825</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <f t="shared" si="4"/>
         <v>495</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="E30" s="8">
+        <f t="shared" si="5"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="5"/>
+        <v>16.510000000000048</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>0.61</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>867</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <f t="shared" si="4"/>
         <v>528.87</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="12"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>0.62</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>808</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <f t="shared" si="4"/>
         <v>500.96</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="8">
+        <f>B32-B31</f>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F32" s="12">
+        <f>C32-C31</f>
+        <v>-59</v>
+      </c>
+      <c r="G32" s="17">
+        <f>D32-D31</f>
+        <v>-27.910000000000025</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>2.73</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>273</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <f t="shared" si="4"/>
         <v>745.29</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B34" s="14">
+      <c r="A34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="B34" s="15">
         <f>AVERAGE(B35:B43)</f>
         <v>0.84333333333333327</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <f>SUM(C35:C43)</f>
         <v>6376</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <f t="shared" si="4"/>
         <v>5377.0933333333332</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <f>B34-B24</f>
         <v>4.1111111111111209E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <f>C34-C24</f>
         <v>-493</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="18">
         <f>D34-D24</f>
         <v>-133.37111111110971</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>0.63</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>732</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <f t="shared" si="4"/>
         <v>461.16</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f>B35-B25</f>
         <v>0.18</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="12">
         <f>C35-C25</f>
         <v>-114</v>
       </c>
-      <c r="G35" s="17">
-        <f t="shared" ref="G35:G43" si="5">D35-D25</f>
+      <c r="G35" s="19">
+        <f t="shared" ref="G35:G43" si="6">D35-D25</f>
         <v>80.460000000000036</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>0.36</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="12">
         <v>722</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <f t="shared" si="4"/>
         <v>259.92</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <f>B36-B26</f>
         <v>-4.9999999999999989E-2</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <f>C36-C26</f>
         <v>-59</v>
       </c>
-      <c r="G36" s="17">
-        <f t="shared" si="5"/>
+      <c r="G36" s="19">
+        <f t="shared" si="6"/>
         <v>-60.289999999999964</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>0.89</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>782</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <f t="shared" si="4"/>
         <v>695.98</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <f>B37-B27</f>
         <v>0.26</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <f>C37-C27</f>
         <v>-15</v>
       </c>
-      <c r="G37" s="17">
-        <f t="shared" si="5"/>
+      <c r="G37" s="19">
+        <f t="shared" si="6"/>
         <v>193.87</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>0.79</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <v>802</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <f t="shared" si="4"/>
         <v>633.58000000000004</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <f>B38-B28</f>
         <v>0.21000000000000008</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <f>C38-C28</f>
         <v>-59</v>
       </c>
-      <c r="G38" s="17">
-        <f t="shared" si="5"/>
+      <c r="G38" s="19">
+        <f t="shared" si="6"/>
         <v>134.2000000000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>0.48</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>792</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <f t="shared" si="4"/>
         <v>380.15999999999997</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <f>B39-B29</f>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <f>C39-C29</f>
         <v>-19</v>
       </c>
-      <c r="G39" s="17">
-        <f t="shared" si="5"/>
+      <c r="G39" s="19">
+        <f t="shared" si="6"/>
         <v>-98.329999999999984</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>0.47</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="12">
         <v>803</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <f t="shared" si="4"/>
         <v>377.40999999999997</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <f>B40-B30</f>
         <v>-0.13</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="12">
         <f>C40-C30</f>
         <v>-22</v>
       </c>
-      <c r="G40" s="17">
-        <f t="shared" si="5"/>
+      <c r="G40" s="19">
+        <f t="shared" si="6"/>
         <v>-117.59000000000003</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>0.5</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <v>759</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <f t="shared" si="4"/>
         <v>379.5</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <f>B41-B31</f>
         <v>-0.10999999999999999</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="12">
         <f>C41-C31</f>
         <v>-108</v>
       </c>
-      <c r="G41" s="17">
-        <f t="shared" si="5"/>
+      <c r="G41" s="19">
+        <f t="shared" si="6"/>
         <v>-149.37</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>0.81</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <v>736</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <f t="shared" si="4"/>
         <v>596.16000000000008</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <f>B42-B32</f>
         <v>0.19000000000000006</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="12">
         <f>C42-C32</f>
         <v>-72</v>
       </c>
-      <c r="G42" s="17">
-        <f t="shared" si="5"/>
+      <c r="G42" s="19">
+        <f t="shared" si="6"/>
         <v>95.200000000000102</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>2.66</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="12">
         <v>248</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="12">
         <f t="shared" si="4"/>
         <v>659.68000000000006</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <f>B43-B33</f>
         <v>-6.999999999999984E-2</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="12">
         <f>C43-C33</f>
         <v>-25</v>
       </c>
-      <c r="G43" s="17">
-        <f t="shared" si="5"/>
+      <c r="G43" s="19">
+        <f t="shared" si="6"/>
         <v>-85.6099999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="15">
+        <f>AVERAGE(B46:B53)</f>
+        <v>0.25124999999999997</v>
+      </c>
+      <c r="C45" s="16">
+        <f>SUM(C46:C53)</f>
+        <v>17881</v>
+      </c>
+      <c r="D45" s="16">
+        <f>B45*C45</f>
+        <v>4492.6012499999997</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="C46" s="12">
+        <v>2534</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" ref="D46:D62" si="7">B46*C46</f>
+        <v>532.14</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="12"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>2487</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="7"/>
+        <v>497.40000000000003</v>
+      </c>
+      <c r="E47" s="8">
+        <f>B47-B46</f>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="F47" s="12">
+        <f>C47-C46</f>
+        <v>-47</v>
+      </c>
+      <c r="G47" s="17">
+        <f>D47-D46</f>
+        <v>-34.739999999999952</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="C48" s="12">
+        <v>2190</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="7"/>
+        <v>591.30000000000007</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="12"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="C49" s="12">
+        <v>2224</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="7"/>
+        <v>600.48</v>
+      </c>
+      <c r="E49" s="8">
+        <f>B49-B48</f>
+        <v>0</v>
+      </c>
+      <c r="F49" s="12">
+        <f>C49-C48</f>
+        <v>34</v>
+      </c>
+      <c r="G49" s="17">
+        <f>D49-D48</f>
+        <v>9.17999999999995</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="C50" s="12">
+        <v>2076</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="7"/>
+        <v>539.76</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:G51" si="8">B50-B49</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="8"/>
+        <v>-148</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="8"/>
+        <v>-60.720000000000027</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="C51" s="12">
+        <v>2146</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="7"/>
+        <v>557.96</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="8"/>
+        <v>70</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="8"/>
+        <v>18.200000000000045</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="C52" s="12">
+        <v>2085</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="7"/>
+        <v>562.95000000000005</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="12"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="C53" s="12">
+        <v>2139</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="7"/>
+        <v>577.53000000000009</v>
+      </c>
+      <c r="E53" s="8">
+        <f>B53-B52</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <f>C53-C52</f>
+        <v>54</v>
+      </c>
+      <c r="G53" s="17">
+        <f>D53-D52</f>
+        <v>14.580000000000041</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="15">
+        <f>AVERAGE(B55:B62)</f>
+        <v>0.25374999999999998</v>
+      </c>
+      <c r="C54" s="16">
+        <f>SUM(C55:C62)</f>
+        <v>17572</v>
+      </c>
+      <c r="D54" s="16">
+        <f t="shared" si="7"/>
+        <v>4458.8949999999995</v>
+      </c>
+      <c r="E54" s="15">
+        <f>B54-B45</f>
+        <v>2.5000000000000022E-3</v>
+      </c>
+      <c r="F54" s="16">
+        <f>C54-C45</f>
+        <v>-309</v>
+      </c>
+      <c r="G54" s="18">
+        <f>D54-D45</f>
+        <v>-33.706250000000182</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="C55" s="12">
+        <v>2489</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="7"/>
+        <v>597.36</v>
+      </c>
+      <c r="E55" s="8">
+        <f>B55-B46</f>
+        <v>0.03</v>
+      </c>
+      <c r="F55" s="12">
+        <f>C55-C46</f>
+        <v>-45</v>
+      </c>
+      <c r="G55" s="19">
+        <f>D55-D46</f>
+        <v>65.220000000000027</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C56" s="12">
+        <v>2454</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="7"/>
+        <v>343.56000000000006</v>
+      </c>
+      <c r="E56" s="8">
+        <f>B56-B47</f>
+        <v>-0.06</v>
+      </c>
+      <c r="F56" s="12">
+        <f>C56-C47</f>
+        <v>-33</v>
+      </c>
+      <c r="G56" s="19">
+        <f>D56-D47</f>
+        <v>-153.83999999999997</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="C57" s="12">
+        <v>2153</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="7"/>
+        <v>688.96</v>
+      </c>
+      <c r="E57" s="8">
+        <f>B57-B48</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="F57" s="12">
+        <f>C57-C48</f>
+        <v>-37</v>
+      </c>
+      <c r="G57" s="19">
+        <f>D57-D48</f>
+        <v>97.659999999999968</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="C58" s="12">
+        <v>2123</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="7"/>
+        <v>679.36</v>
+      </c>
+      <c r="E58" s="8">
+        <f>B58-B49</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="F58" s="12">
+        <f>C58-C49</f>
+        <v>-101</v>
+      </c>
+      <c r="G58" s="19">
+        <f>D58-D49</f>
+        <v>78.88</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="C59" s="12">
+        <v>2087</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" si="7"/>
+        <v>480.01000000000005</v>
+      </c>
+      <c r="E59" s="8">
+        <f>B59-B50</f>
+        <v>-0.03</v>
+      </c>
+      <c r="F59" s="12">
+        <f>C59-C50</f>
+        <v>11</v>
+      </c>
+      <c r="G59" s="19">
+        <f>D59-D50</f>
+        <v>-59.749999999999943</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="C60" s="12">
+        <v>2106</v>
+      </c>
+      <c r="D60" s="12">
+        <f t="shared" si="7"/>
+        <v>463.32</v>
+      </c>
+      <c r="E60" s="8">
+        <f>B60-B51</f>
+        <v>-4.0000000000000008E-2</v>
+      </c>
+      <c r="F60" s="12">
+        <f>C60-C51</f>
+        <v>-40</v>
+      </c>
+      <c r="G60" s="19">
+        <f>D60-D51</f>
+        <v>-94.640000000000043</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="C61" s="12">
+        <v>2056</v>
+      </c>
+      <c r="D61" s="12">
+        <f t="shared" si="7"/>
+        <v>493.44</v>
+      </c>
+      <c r="E61" s="8">
+        <f>B61-B52</f>
+        <v>-3.0000000000000027E-2</v>
+      </c>
+      <c r="F61" s="12">
+        <f>C61-C52</f>
+        <v>-29</v>
+      </c>
+      <c r="G61" s="19">
+        <f>D61-D52</f>
+        <v>-69.510000000000048</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="C62" s="12">
+        <v>2104</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="7"/>
+        <v>673.28</v>
+      </c>
+      <c r="E62" s="8">
+        <f>B62-B53</f>
+        <v>4.9999999999999989E-2</v>
+      </c>
+      <c r="F62" s="12">
+        <f>C62-C53</f>
+        <v>-35</v>
+      </c>
+      <c r="G62" s="19">
+        <f>D62-D53</f>
+        <v>95.749999999999886</v>
       </c>
     </row>
   </sheetData>
@@ -1287,11 +1858,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1306,25 +1877,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1580,7 +2151,7 @@
       <c r="E16" s="1"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>22</v>
       </c>
@@ -1600,7 +2171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
       <c r="B18" s="1"/>
       <c r="C18" s="2"/>
@@ -1608,7 +2179,7 @@
       <c r="E18" s="1"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>15</v>
       </c>
@@ -1622,7 +2193,7 @@
       <c r="E19" s="1"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>16</v>
       </c>
@@ -1642,7 +2213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>17</v>
       </c>
@@ -1662,7 +2233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>18</v>
       </c>
@@ -1682,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="1"/>
       <c r="C23" s="2"/>
@@ -1690,449 +2261,964 @@
       <c r="E23" s="1"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="15">
         <f>AVERAGE(B25:B33)</f>
         <v>0.36222222222222222</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <f>SUM(C25:C33)</f>
         <v>17958</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="16">
         <f>B24*C24</f>
         <v>6504.7866666666669</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>0.14000000000000001</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <v>2220</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <f t="shared" ref="D25:D43" si="4">B25*C25</f>
         <v>310.8</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="E25" s="8"/>
+      <c r="F25" s="12"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>0.11</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <v>2085</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <f t="shared" si="4"/>
         <v>229.35</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="E26" s="8">
+        <f>B26-B25</f>
+        <v>-3.0000000000000013E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f>C26-C25</f>
+        <v>-135</v>
+      </c>
+      <c r="G26" s="17">
+        <f>D26-D25</f>
+        <v>-81.450000000000017</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>0.22</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>2181</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <f t="shared" si="4"/>
         <v>479.82</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>0.21</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>2189</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <f t="shared" si="4"/>
         <v>459.69</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="11"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="E28" s="8">
+        <f>B28-B27</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F28" s="12">
+        <f>C28-C27</f>
+        <v>8</v>
+      </c>
+      <c r="G28" s="17">
+        <f>D28-D27</f>
+        <v>-20.129999999999995</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>0.19</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>2225</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <f t="shared" si="4"/>
         <v>422.75</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="E29" s="8">
+        <f t="shared" ref="E29:E30" si="5">B29-B28</f>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" ref="F29:F30" si="6">C29-C28</f>
+        <v>36</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" ref="G29:G30" si="7">D29-D28</f>
+        <v>-36.94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>0.19</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>2138</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <f t="shared" si="4"/>
         <v>406.22</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="E30" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="6"/>
+        <v>-87</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="7"/>
+        <v>-16.529999999999973</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>0.22</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>2103</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <f t="shared" si="4"/>
         <v>462.66</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="11"/>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="E31" s="8"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="5"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>0.2</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>2120</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <f t="shared" si="4"/>
         <v>424</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="8">
+        <f>B32-B31</f>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="F32" s="12">
+        <f>C32-C31</f>
+        <v>17</v>
+      </c>
+      <c r="G32" s="17">
+        <f>D32-D31</f>
+        <v>-38.660000000000025</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>1.78</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>697</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <f t="shared" si="4"/>
         <v>1240.6600000000001</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="15">
         <f>AVERAGE(B35:B43)</f>
         <v>0.34222222222222221</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <f>SUM(C35:C43)</f>
         <v>17757</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <f t="shared" si="4"/>
         <v>6076.84</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <f>B34-B24</f>
         <v>-2.0000000000000018E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <f>C34-C24</f>
         <v>-201</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="18">
         <f>D34-D24</f>
         <v>-427.94666666666672</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>0.17</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>2133</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <f t="shared" si="4"/>
         <v>362.61</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f>B35-B25</f>
         <v>0.03</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="12">
         <f>C35-C25</f>
         <v>-87</v>
       </c>
-      <c r="G35" s="17">
-        <f t="shared" ref="G35:G43" si="5">D35-D25</f>
+      <c r="G35" s="19">
+        <f t="shared" ref="G35:G43" si="8">D35-D25</f>
         <v>51.81</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>0.12</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="12">
         <v>2121</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <f t="shared" si="4"/>
         <v>254.51999999999998</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <f>B36-B26</f>
         <v>9.999999999999995E-3</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <f>C36-C26</f>
         <v>36</v>
       </c>
-      <c r="G36" s="17">
-        <f t="shared" si="5"/>
+      <c r="G36" s="19">
+        <f t="shared" si="8"/>
         <v>25.169999999999987</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>0.25</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>2052</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <f t="shared" si="4"/>
         <v>513</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <f>B37-B27</f>
         <v>0.03</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <f>C37-C27</f>
         <v>-129</v>
       </c>
-      <c r="G37" s="17">
-        <f t="shared" si="5"/>
+      <c r="G37" s="19">
+        <f t="shared" si="8"/>
         <v>33.180000000000007</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>0.24</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <v>2160</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <f t="shared" si="4"/>
         <v>518.4</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <f>B38-B28</f>
         <v>0.03</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <f>C38-C28</f>
         <v>-29</v>
       </c>
-      <c r="G38" s="17">
-        <f t="shared" si="5"/>
+      <c r="G38" s="19">
+        <f t="shared" si="8"/>
         <v>58.70999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>0.19</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>2189</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <f t="shared" si="4"/>
         <v>415.91</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <f>B39-B29</f>
         <v>0</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <f>C39-C29</f>
         <v>-36</v>
       </c>
-      <c r="G39" s="17">
-        <f t="shared" si="5"/>
+      <c r="G39" s="19">
+        <f t="shared" si="8"/>
         <v>-6.839999999999975</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>0.19</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="12">
         <v>2131</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <f t="shared" si="4"/>
         <v>404.89</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <f>B40-B30</f>
         <v>0</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="12">
         <f>C40-C30</f>
         <v>-7</v>
       </c>
-      <c r="G40" s="17">
-        <f t="shared" si="5"/>
+      <c r="G40" s="19">
+        <f t="shared" si="8"/>
         <v>-1.3300000000000409</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>0.19</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <v>2108</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <f t="shared" si="4"/>
         <v>400.52</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <f>B41-B31</f>
         <v>-0.03</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="12">
         <f>C41-C31</f>
         <v>5</v>
       </c>
-      <c r="G41" s="17">
-        <f t="shared" si="5"/>
+      <c r="G41" s="19">
+        <f t="shared" si="8"/>
         <v>-62.140000000000043</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>0.24</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <v>2164</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <f t="shared" si="4"/>
         <v>519.36</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <f>B42-B32</f>
         <v>3.999999999999998E-2</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="12">
         <f>C42-C32</f>
         <v>44</v>
       </c>
-      <c r="G42" s="17">
-        <f t="shared" si="5"/>
+      <c r="G42" s="19">
+        <f t="shared" si="8"/>
         <v>95.360000000000014</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>1.49</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="12">
         <v>699</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="12">
         <f t="shared" si="4"/>
         <v>1041.51</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <f>B43-B33</f>
         <v>-0.29000000000000004</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="12">
         <f>C43-C33</f>
         <v>2</v>
       </c>
-      <c r="G43" s="17">
-        <f t="shared" si="5"/>
+      <c r="G43" s="19">
+        <f t="shared" si="8"/>
         <v>-199.15000000000009</v>
       </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="15">
+        <f>AVERAGE(B46:B53)</f>
+        <v>0.12275000000000001</v>
+      </c>
+      <c r="C45" s="16">
+        <f>SUM(C46:C53)</f>
+        <v>36692</v>
+      </c>
+      <c r="D45" s="16">
+        <f>B45*C45</f>
+        <v>4503.9430000000002</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="C46" s="12">
+        <v>5147</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" ref="D46:D62" si="9">B46*C46</f>
+        <v>478.67099999999999</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>5059</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="9"/>
+        <v>399.661</v>
+      </c>
+      <c r="E47" s="8">
+        <f>B47-B46</f>
+        <v>-1.3999999999999999E-2</v>
+      </c>
+      <c r="F47" s="12">
+        <f>C47-C46</f>
+        <v>-88</v>
+      </c>
+      <c r="G47" s="17">
+        <f>D47-D46</f>
+        <v>-79.009999999999991</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C48" s="12">
+        <v>4330</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="9"/>
+        <v>606.20000000000005</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="C49" s="12">
+        <v>4521</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="9"/>
+        <v>587.73</v>
+      </c>
+      <c r="E49" s="8">
+        <f>B49-B48</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F49" s="12">
+        <f>C49-C48</f>
+        <v>191</v>
+      </c>
+      <c r="G49" s="17">
+        <f>D49-D48</f>
+        <v>-18.470000000000027</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="C50" s="12">
+        <v>4446</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="9"/>
+        <v>577.98</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:E51" si="10">B50-B49</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" ref="F50:F51" si="11">C50-C49</f>
+        <v>-75</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" ref="G50:G51" si="12">D50-D49</f>
+        <v>-9.75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C51" s="12">
+        <v>4428</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="9"/>
+        <v>619.92000000000007</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="10"/>
+        <v>1.0000000000000009E-2</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="11"/>
+        <v>-18</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="12"/>
+        <v>41.940000000000055</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4366</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="9"/>
+        <v>611.24</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="C53" s="12">
+        <v>4395</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="9"/>
+        <v>571.35</v>
+      </c>
+      <c r="E53" s="8">
+        <f>B53-B52</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F53" s="12">
+        <f>C53-C52</f>
+        <v>29</v>
+      </c>
+      <c r="G53" s="17">
+        <f>D53-D52</f>
+        <v>-39.889999999999986</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="15">
+        <f>AVERAGE(B55:B62)</f>
+        <v>0.11637500000000001</v>
+      </c>
+      <c r="C54" s="16">
+        <f>SUM(C55:C62)</f>
+        <v>38352</v>
+      </c>
+      <c r="D54" s="16">
+        <f t="shared" si="9"/>
+        <v>4463.2139999999999</v>
+      </c>
+      <c r="E54" s="15">
+        <f>B54-B45</f>
+        <v>-6.3750000000000057E-3</v>
+      </c>
+      <c r="F54" s="16">
+        <f>C54-C45</f>
+        <v>1660</v>
+      </c>
+      <c r="G54" s="18">
+        <f>D54-D45</f>
+        <v>-40.729000000000269</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="C55" s="12">
+        <v>5397</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="9"/>
+        <v>491.12700000000001</v>
+      </c>
+      <c r="E55" s="8">
+        <f>B55-B46</f>
+        <v>-2.0000000000000018E-3</v>
+      </c>
+      <c r="F55" s="12">
+        <f>C55-C46</f>
+        <v>250</v>
+      </c>
+      <c r="G55" s="19">
+        <f>D55-D46</f>
+        <v>12.456000000000017</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="C56" s="12">
+        <v>5381</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="9"/>
+        <v>376.67</v>
+      </c>
+      <c r="E56" s="8">
+        <f>B56-B47</f>
+        <v>-8.9999999999999941E-3</v>
+      </c>
+      <c r="F56" s="12">
+        <f>C56-C47</f>
+        <v>322</v>
+      </c>
+      <c r="G56" s="19">
+        <f>D56-D47</f>
+        <v>-22.990999999999985</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="C57" s="12">
+        <v>4639</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="9"/>
+        <v>649.46</v>
+      </c>
+      <c r="E57" s="8">
+        <f>B57-B48</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <f>C57-C48</f>
+        <v>309</v>
+      </c>
+      <c r="G57" s="19">
+        <f>D57-D48</f>
+        <v>43.259999999999991</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="C58" s="12">
+        <v>4568</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="9"/>
+        <v>593.84</v>
+      </c>
+      <c r="E58" s="8">
+        <f>B58-B49</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <f>C58-C49</f>
+        <v>47</v>
+      </c>
+      <c r="G58" s="19">
+        <f>D58-D49</f>
+        <v>6.1100000000000136</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C59" s="12">
+        <v>4504</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" si="9"/>
+        <v>540.48</v>
+      </c>
+      <c r="E59" s="8">
+        <f>B59-B50</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F59" s="12">
+        <f>C59-C50</f>
+        <v>58</v>
+      </c>
+      <c r="G59" s="19">
+        <f>D59-D50</f>
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C60" s="12">
+        <v>4621</v>
+      </c>
+      <c r="D60" s="12">
+        <f t="shared" si="9"/>
+        <v>554.52</v>
+      </c>
+      <c r="E60" s="8">
+        <f>B60-B51</f>
+        <v>-2.0000000000000018E-2</v>
+      </c>
+      <c r="F60" s="12">
+        <f>C60-C51</f>
+        <v>193</v>
+      </c>
+      <c r="G60" s="19">
+        <f>D60-D51</f>
+        <v>-65.400000000000091</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="C61" s="12">
+        <v>4667</v>
+      </c>
+      <c r="D61" s="12">
+        <f t="shared" si="9"/>
+        <v>606.71</v>
+      </c>
+      <c r="E61" s="8">
+        <f>B61-B52</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F61" s="12">
+        <f>C61-C52</f>
+        <v>301</v>
+      </c>
+      <c r="G61" s="19">
+        <f>D61-D52</f>
+        <v>-4.5299999999999727</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="C62" s="12">
+        <v>4575</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="9"/>
+        <v>594.75</v>
+      </c>
+      <c r="E62" s="8">
+        <f>B62-B53</f>
+        <v>0</v>
+      </c>
+      <c r="F62" s="12">
+        <f>C62-C53</f>
+        <v>180</v>
+      </c>
+      <c r="G62" s="19">
+        <f>D62-D53</f>
+        <v>23.399999999999977</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="5"/>
+      <c r="B63" s="1"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="1"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2141,11 +3227,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I62"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G34" sqref="G34"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2160,25 +3246,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
@@ -2557,451 +3643,2652 @@
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="14">
+      <c r="B24" s="15">
         <f>AVERAGE(B25:B33)</f>
         <v>0.32333333333333336</v>
       </c>
-      <c r="C24" s="15">
+      <c r="C24" s="16">
         <f>SUM(C25:C33)</f>
         <v>18889</v>
       </c>
-      <c r="D24" s="15">
+      <c r="D24" s="16">
         <f>B24*C24</f>
         <v>6107.4433333333336</v>
       </c>
-      <c r="E24" s="14"/>
-      <c r="F24" s="15"/>
+      <c r="E24" s="15"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B25" s="7">
+      <c r="B25" s="8">
         <v>0.15</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="12">
         <v>2405</v>
       </c>
-      <c r="D25" s="11">
+      <c r="D25" s="12">
         <f t="shared" ref="D25:D43" si="4">B25*C25</f>
         <v>360.75</v>
       </c>
-      <c r="E25" s="7"/>
-      <c r="F25" s="11"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="7">
+      <c r="B26" s="8">
         <v>0.13</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="12">
         <v>2249</v>
       </c>
-      <c r="D26" s="11">
+      <c r="D26" s="12">
         <f t="shared" si="4"/>
         <v>292.37</v>
       </c>
-      <c r="E26" s="7"/>
-      <c r="F26" s="11"/>
+      <c r="E26" s="8">
+        <f>B26-B25</f>
+        <v>-1.999999999999999E-2</v>
+      </c>
+      <c r="F26" s="12">
+        <f>C26-C25</f>
+        <v>-156</v>
+      </c>
+      <c r="G26" s="17">
+        <f>D26-D25</f>
+        <v>-68.38</v>
+      </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="B27" s="7">
+      <c r="B27" s="8">
         <v>0.2</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="12">
         <v>2310</v>
       </c>
-      <c r="D27" s="11">
+      <c r="D27" s="12">
         <f t="shared" si="4"/>
         <v>462</v>
       </c>
-      <c r="E27" s="7"/>
-      <c r="F27" s="11"/>
+      <c r="E27" s="8"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="5"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="B28" s="7">
+      <c r="B28" s="8">
         <v>0.2</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="12">
         <v>2146</v>
       </c>
-      <c r="D28" s="11">
+      <c r="D28" s="12">
         <f t="shared" si="4"/>
         <v>429.20000000000005</v>
       </c>
-      <c r="E28" s="7"/>
-      <c r="F28" s="11"/>
+      <c r="E28" s="8">
+        <f>B28-B27</f>
+        <v>0</v>
+      </c>
+      <c r="F28" s="12">
+        <f>C28-C27</f>
+        <v>-164</v>
+      </c>
+      <c r="G28" s="17">
+        <f>D28-D27</f>
+        <v>-32.799999999999955</v>
+      </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B29" s="7">
+      <c r="B29" s="8">
         <v>0.19</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="12">
         <v>2211</v>
       </c>
-      <c r="D29" s="11">
+      <c r="D29" s="12">
         <f t="shared" si="4"/>
         <v>420.09000000000003</v>
       </c>
-      <c r="E29" s="7"/>
-      <c r="F29" s="11"/>
+      <c r="E29" s="8">
+        <f t="shared" ref="E29:G30" si="5">B29-B28</f>
+        <v>-1.0000000000000009E-2</v>
+      </c>
+      <c r="F29" s="12">
+        <f t="shared" si="5"/>
+        <v>65</v>
+      </c>
+      <c r="G29" s="17">
+        <f t="shared" si="5"/>
+        <v>-9.1100000000000136</v>
+      </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="7">
+      <c r="B30" s="8">
         <v>0.19</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="12">
         <v>2283</v>
       </c>
-      <c r="D30" s="11">
+      <c r="D30" s="12">
         <f t="shared" si="4"/>
         <v>433.77</v>
       </c>
-      <c r="E30" s="7"/>
-      <c r="F30" s="11"/>
+      <c r="E30" s="8">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="12">
+        <f t="shared" si="5"/>
+        <v>72</v>
+      </c>
+      <c r="G30" s="17">
+        <f t="shared" si="5"/>
+        <v>13.67999999999995</v>
+      </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="B31" s="7">
+      <c r="B31" s="8">
         <v>0.21</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="12">
         <v>2252</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D31" s="12">
         <f t="shared" si="4"/>
         <v>472.91999999999996</v>
       </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="11"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="5"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="B32" s="7">
+      <c r="B32" s="8">
         <v>0.2</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="12">
         <v>2264</v>
       </c>
-      <c r="D32" s="11">
+      <c r="D32" s="12">
         <f t="shared" si="4"/>
         <v>452.8</v>
       </c>
-      <c r="E32" s="7"/>
-      <c r="F32" s="11"/>
+      <c r="E32" s="8">
+        <f>B32-B31</f>
+        <v>-9.9999999999999811E-3</v>
+      </c>
+      <c r="F32" s="12">
+        <f>C32-C31</f>
+        <v>12</v>
+      </c>
+      <c r="G32" s="17">
+        <f>D32-D31</f>
+        <v>-20.119999999999948</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="B33" s="7">
+      <c r="B33" s="8">
         <v>1.44</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="12">
         <v>769</v>
       </c>
-      <c r="D33" s="11">
+      <c r="D33" s="12">
         <f t="shared" si="4"/>
         <v>1107.3599999999999</v>
       </c>
-      <c r="E33" s="7"/>
-      <c r="F33" s="11"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="12"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="13" t="s">
+      <c r="A34" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="B34" s="14">
+      <c r="B34" s="15">
         <f>AVERAGE(B35:B43)</f>
         <v>0.28999999999999992</v>
       </c>
-      <c r="C34" s="15">
+      <c r="C34" s="16">
         <f>SUM(C35:C43)</f>
         <v>19996</v>
       </c>
-      <c r="D34" s="15">
+      <c r="D34" s="16">
         <f t="shared" si="4"/>
         <v>5798.8399999999983</v>
       </c>
-      <c r="E34" s="14">
+      <c r="E34" s="15">
         <f>B34-B24</f>
         <v>-3.3333333333333437E-2</v>
       </c>
-      <c r="F34" s="15">
+      <c r="F34" s="16">
         <f>C34-C24</f>
         <v>1107</v>
       </c>
-      <c r="G34" s="16">
+      <c r="G34" s="18">
         <f>D34-D24</f>
         <v>-308.60333333333529</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B35" s="7">
+      <c r="B35" s="8">
         <v>0.15</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="12">
         <v>2487</v>
       </c>
-      <c r="D35" s="11">
+      <c r="D35" s="12">
         <f t="shared" si="4"/>
         <v>373.05</v>
       </c>
-      <c r="E35" s="7">
+      <c r="E35" s="8">
         <f>B35-B25</f>
         <v>0</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="12">
         <f>C35-C25</f>
         <v>82</v>
       </c>
-      <c r="G35" s="17">
-        <f t="shared" ref="G35:G43" si="5">D35-D25</f>
+      <c r="G35" s="19">
+        <f t="shared" ref="G35:G43" si="6">D35-D25</f>
         <v>12.300000000000011</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="7">
+      <c r="B36" s="8">
         <v>0.11</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="12">
         <v>2498</v>
       </c>
-      <c r="D36" s="11">
+      <c r="D36" s="12">
         <f t="shared" si="4"/>
         <v>274.78000000000003</v>
       </c>
-      <c r="E36" s="7">
+      <c r="E36" s="8">
         <f>B36-B26</f>
         <v>-2.0000000000000004E-2</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="12">
         <f>C36-C26</f>
         <v>249</v>
       </c>
-      <c r="G36" s="17">
-        <f t="shared" si="5"/>
+      <c r="G36" s="19">
+        <f t="shared" si="6"/>
         <v>-17.589999999999975</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="7">
+      <c r="B37" s="8">
         <v>0.21</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="12">
         <v>2343</v>
       </c>
-      <c r="D37" s="11">
+      <c r="D37" s="12">
         <f t="shared" si="4"/>
         <v>492.03</v>
       </c>
-      <c r="E37" s="7">
+      <c r="E37" s="8">
         <f>B37-B27</f>
         <v>9.9999999999999811E-3</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="12">
         <f>C37-C27</f>
         <v>33</v>
       </c>
-      <c r="G37" s="17">
-        <f t="shared" si="5"/>
+      <c r="G37" s="19">
+        <f t="shared" si="6"/>
         <v>30.029999999999973</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="12" t="s">
+      <c r="A38" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="7">
+      <c r="B38" s="8">
         <v>0.21</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="12">
         <v>2408</v>
       </c>
-      <c r="D38" s="11">
+      <c r="D38" s="12">
         <f t="shared" si="4"/>
         <v>505.68</v>
       </c>
-      <c r="E38" s="7">
+      <c r="E38" s="8">
         <f>B38-B28</f>
         <v>9.9999999999999811E-3</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="12">
         <f>C38-C28</f>
         <v>262</v>
       </c>
-      <c r="G38" s="17">
-        <f t="shared" si="5"/>
+      <c r="G38" s="19">
+        <f t="shared" si="6"/>
         <v>76.479999999999961</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="12" t="s">
+      <c r="A39" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="B39" s="7">
+      <c r="B39" s="8">
         <v>0.18</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="12">
         <v>2347</v>
       </c>
-      <c r="D39" s="11">
+      <c r="D39" s="12">
         <f t="shared" si="4"/>
         <v>422.46</v>
       </c>
-      <c r="E39" s="7">
+      <c r="E39" s="8">
         <f>B39-B29</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="12">
         <f>C39-C29</f>
         <v>136</v>
       </c>
-      <c r="G39" s="17">
-        <f t="shared" si="5"/>
+      <c r="G39" s="19">
+        <f t="shared" si="6"/>
         <v>2.3699999999999477</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="7">
+      <c r="B40" s="8">
         <v>0.18</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="12">
         <v>2361</v>
       </c>
-      <c r="D40" s="11">
+      <c r="D40" s="12">
         <f t="shared" si="4"/>
         <v>424.97999999999996</v>
       </c>
-      <c r="E40" s="7">
+      <c r="E40" s="8">
         <f>B40-B30</f>
         <v>-1.0000000000000009E-2</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="12">
         <f>C40-C30</f>
         <v>78</v>
       </c>
-      <c r="G40" s="17">
-        <f t="shared" si="5"/>
+      <c r="G40" s="19">
+        <f t="shared" si="6"/>
         <v>-8.7900000000000205</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="B41" s="7">
+      <c r="B41" s="8">
         <v>0.19</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="12">
         <v>2313</v>
       </c>
-      <c r="D41" s="11">
+      <c r="D41" s="12">
         <f t="shared" si="4"/>
         <v>439.47</v>
       </c>
-      <c r="E41" s="7">
+      <c r="E41" s="8">
         <f>B41-B31</f>
         <v>-1.999999999999999E-2</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="12">
         <f>C41-C31</f>
         <v>61</v>
       </c>
-      <c r="G41" s="17">
-        <f t="shared" si="5"/>
+      <c r="G41" s="19">
+        <f t="shared" si="6"/>
         <v>-33.449999999999932</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="B42" s="7">
+      <c r="B42" s="8">
         <v>0.21</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="12">
         <v>2421</v>
       </c>
-      <c r="D42" s="11">
+      <c r="D42" s="12">
         <f t="shared" si="4"/>
         <v>508.40999999999997</v>
       </c>
-      <c r="E42" s="7">
+      <c r="E42" s="8">
         <f>B42-B32</f>
         <v>9.9999999999999811E-3</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="12">
         <f>C42-C32</f>
         <v>157</v>
       </c>
-      <c r="G42" s="17">
-        <f t="shared" si="5"/>
+      <c r="G42" s="19">
+        <f t="shared" si="6"/>
         <v>55.609999999999957</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="B43" s="7">
+      <c r="B43" s="8">
         <v>1.17</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="12">
         <v>818</v>
       </c>
-      <c r="D43" s="11">
+      <c r="D43" s="12">
         <f t="shared" si="4"/>
         <v>957.06</v>
       </c>
-      <c r="E43" s="7">
+      <c r="E43" s="8">
         <f>B43-B33</f>
         <v>-0.27</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="12">
         <f>C43-C33</f>
         <v>49</v>
       </c>
-      <c r="G43" s="17">
-        <f t="shared" si="5"/>
+      <c r="G43" s="19">
+        <f t="shared" si="6"/>
         <v>-150.29999999999995</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B45" s="15">
+        <f>AVERAGE(B46:B53)</f>
+        <v>0.105</v>
+      </c>
+      <c r="C45" s="16">
+        <f>SUM(C46:C53)</f>
+        <v>42288</v>
+      </c>
+      <c r="D45" s="16">
+        <f>B45*C45</f>
+        <v>4440.24</v>
+      </c>
+      <c r="E45" s="15"/>
+      <c r="F45" s="16"/>
+      <c r="G45" s="5"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="C46" s="12">
+        <v>5880</v>
+      </c>
+      <c r="D46" s="12">
+        <f t="shared" ref="D46:D62" si="7">B46*C46</f>
+        <v>476.28000000000003</v>
+      </c>
+      <c r="E46" s="8"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="5"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B47" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C47" s="12">
+        <v>5820</v>
+      </c>
+      <c r="D47" s="12">
+        <f t="shared" si="7"/>
+        <v>401.58000000000004</v>
+      </c>
+      <c r="E47" s="8">
+        <f>B47-B46</f>
+        <v>-1.1999999999999997E-2</v>
+      </c>
+      <c r="F47" s="12">
+        <f>C47-C46</f>
+        <v>-60</v>
+      </c>
+      <c r="G47" s="17">
+        <f>D47-D46</f>
+        <v>-74.699999999999989</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="B48" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C48" s="12">
+        <v>5005</v>
+      </c>
+      <c r="D48" s="12">
+        <f t="shared" si="7"/>
+        <v>600.6</v>
+      </c>
+      <c r="E48" s="8"/>
+      <c r="F48" s="12"/>
+      <c r="G48" s="5"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="B49" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C49" s="12">
+        <v>5169</v>
+      </c>
+      <c r="D49" s="12">
+        <f t="shared" si="7"/>
+        <v>568.59</v>
+      </c>
+      <c r="E49" s="8">
+        <f>B49-B48</f>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="F49" s="12">
+        <f>C49-C48</f>
+        <v>164</v>
+      </c>
+      <c r="G49" s="17">
+        <f>D49-D48</f>
+        <v>-32.009999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B50" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C50" s="12">
+        <v>5078</v>
+      </c>
+      <c r="D50" s="12">
+        <f t="shared" si="7"/>
+        <v>558.58000000000004</v>
+      </c>
+      <c r="E50" s="8">
+        <f t="shared" ref="E50:G51" si="8">B50-B49</f>
+        <v>0</v>
+      </c>
+      <c r="F50" s="12">
+        <f t="shared" si="8"/>
+        <v>-91</v>
+      </c>
+      <c r="G50" s="17">
+        <f t="shared" si="8"/>
+        <v>-10.009999999999991</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B51" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C51" s="12">
+        <v>5224</v>
+      </c>
+      <c r="D51" s="12">
+        <f t="shared" si="7"/>
+        <v>574.64</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="F51" s="12">
+        <f t="shared" si="8"/>
+        <v>146</v>
+      </c>
+      <c r="G51" s="17">
+        <f t="shared" si="8"/>
+        <v>16.059999999999945</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B52" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C52" s="12">
+        <v>4969</v>
+      </c>
+      <c r="D52" s="12">
+        <f t="shared" si="7"/>
+        <v>596.28</v>
+      </c>
+      <c r="E52" s="8"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="5"/>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B53" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C53" s="12">
+        <v>5143</v>
+      </c>
+      <c r="D53" s="12">
+        <f t="shared" si="7"/>
+        <v>617.16</v>
+      </c>
+      <c r="E53" s="8">
+        <f>B53-B52</f>
+        <v>0</v>
+      </c>
+      <c r="F53" s="12">
+        <f>C53-C52</f>
+        <v>174</v>
+      </c>
+      <c r="G53" s="17">
+        <f>D53-D52</f>
+        <v>20.879999999999995</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B54" s="15">
+        <f>AVERAGE(B55:B62)</f>
+        <v>0.103875</v>
+      </c>
+      <c r="C54" s="16">
+        <f>SUM(C55:C62)</f>
+        <v>42506</v>
+      </c>
+      <c r="D54" s="16">
+        <f t="shared" si="7"/>
+        <v>4415.3107499999996</v>
+      </c>
+      <c r="E54" s="15">
+        <f>B54-B45</f>
+        <v>-1.125000000000001E-3</v>
+      </c>
+      <c r="F54" s="16">
+        <f>C54-C45</f>
+        <v>218</v>
+      </c>
+      <c r="G54" s="18">
+        <f>D54-D45</f>
+        <v>-24.929250000000138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="B55" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="C55" s="12">
+        <v>5964</v>
+      </c>
+      <c r="D55" s="12">
+        <f t="shared" si="7"/>
+        <v>489.048</v>
+      </c>
+      <c r="E55" s="8">
+        <f>B55-B46</f>
+        <v>1.0000000000000009E-3</v>
+      </c>
+      <c r="F55" s="12">
+        <f>C55-C46</f>
+        <v>84</v>
+      </c>
+      <c r="G55" s="19">
+        <f>D55-D46</f>
+        <v>12.767999999999972</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B56" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="C56" s="12">
+        <v>5920</v>
+      </c>
+      <c r="D56" s="12">
+        <f t="shared" si="7"/>
+        <v>408.48</v>
+      </c>
+      <c r="E56" s="8">
+        <f>B56-B47</f>
+        <v>0</v>
+      </c>
+      <c r="F56" s="12">
+        <f>C56-C47</f>
+        <v>100</v>
+      </c>
+      <c r="G56" s="19">
+        <f>D56-D47</f>
+        <v>6.8999999999999773</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="B57" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C57" s="12">
+        <v>5044</v>
+      </c>
+      <c r="D57" s="12">
+        <f t="shared" si="7"/>
+        <v>605.28</v>
+      </c>
+      <c r="E57" s="8">
+        <f>B57-B48</f>
+        <v>0</v>
+      </c>
+      <c r="F57" s="12">
+        <f>C57-C48</f>
+        <v>39</v>
+      </c>
+      <c r="G57" s="19">
+        <f>D57-D48</f>
+        <v>4.67999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C58" s="12">
+        <v>5001</v>
+      </c>
+      <c r="D58" s="12">
+        <f t="shared" si="7"/>
+        <v>550.11</v>
+      </c>
+      <c r="E58" s="8">
+        <f>B58-B49</f>
+        <v>0</v>
+      </c>
+      <c r="F58" s="12">
+        <f>C58-C49</f>
+        <v>-168</v>
+      </c>
+      <c r="G58" s="19">
+        <f>D58-D49</f>
+        <v>-18.480000000000018</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B59" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C59" s="12">
+        <v>5159</v>
+      </c>
+      <c r="D59" s="12">
+        <f t="shared" si="7"/>
+        <v>567.49</v>
+      </c>
+      <c r="E59" s="8">
+        <f>B59-B50</f>
+        <v>0</v>
+      </c>
+      <c r="F59" s="12">
+        <f>C59-C50</f>
+        <v>81</v>
+      </c>
+      <c r="G59" s="19">
+        <f>D59-D50</f>
+        <v>8.9099999999999682</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B60" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C60" s="12">
+        <v>5256</v>
+      </c>
+      <c r="D60" s="12">
+        <f t="shared" si="7"/>
+        <v>578.16</v>
+      </c>
+      <c r="E60" s="8">
+        <f>B60-B51</f>
+        <v>0</v>
+      </c>
+      <c r="F60" s="12">
+        <f>C60-C51</f>
+        <v>32</v>
+      </c>
+      <c r="G60" s="19">
+        <f>D60-D51</f>
+        <v>3.5199999999999818</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="B61" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="C61" s="12">
+        <v>5079</v>
+      </c>
+      <c r="D61" s="12">
+        <f t="shared" si="7"/>
+        <v>609.48</v>
+      </c>
+      <c r="E61" s="8">
+        <f>B61-B52</f>
+        <v>0</v>
+      </c>
+      <c r="F61" s="12">
+        <f>C61-C52</f>
+        <v>110</v>
+      </c>
+      <c r="G61" s="19">
+        <f>D61-D52</f>
+        <v>13.200000000000045</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="B62" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="C62" s="12">
+        <v>5083</v>
+      </c>
+      <c r="D62" s="12">
+        <f t="shared" si="7"/>
+        <v>559.13</v>
+      </c>
+      <c r="E62" s="8">
+        <f>B62-B53</f>
+        <v>-9.999999999999995E-3</v>
+      </c>
+      <c r="F62" s="12">
+        <f>C62-C53</f>
+        <v>-60</v>
+      </c>
+      <c r="G62" s="19">
+        <f>D62-D53</f>
+        <v>-58.029999999999973</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.21</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2534</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G13" si="0">E2*F2</f>
+        <v>532.14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2487</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" si="0"/>
+        <v>497.40000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2489</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>597.36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2454</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>343.56000000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5147</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>478.67099999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8">
+        <v>7.9000000000000001E-2</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5059</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>399.661</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>5397</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>491.12700000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F9" s="12">
+        <v>5381</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>376.67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="8">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="F10" s="12">
+        <v>5880</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>476.28000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5820</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>401.58000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8">
+        <v>8.2000000000000003E-2</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5964</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>489.048</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8">
+        <v>6.9000000000000006E-2</v>
+      </c>
+      <c r="F13" s="12">
+        <v>5920</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>408.48</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G13"/>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="R35" sqref="R35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="G2" s="12">
+        <v>2190</v>
+      </c>
+      <c r="H2" s="12">
+        <f t="shared" ref="H2:H25" si="0">F2*G2</f>
+        <v>591.30000000000007</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="G3" s="12">
+        <v>2224</v>
+      </c>
+      <c r="H3" s="12">
+        <f t="shared" si="0"/>
+        <v>600.48</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="G4" s="12">
+        <v>2076</v>
+      </c>
+      <c r="H4" s="12">
+        <f t="shared" si="0"/>
+        <v>539.76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.26</v>
+      </c>
+      <c r="G5" s="12">
+        <v>2146</v>
+      </c>
+      <c r="H5" s="12">
+        <f t="shared" si="0"/>
+        <v>557.96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="G6" s="12">
+        <v>2153</v>
+      </c>
+      <c r="H6" s="12">
+        <f t="shared" si="0"/>
+        <v>688.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="G7" s="12">
+        <v>2123</v>
+      </c>
+      <c r="H7" s="12">
+        <f t="shared" si="0"/>
+        <v>679.36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="8">
+        <v>0.23</v>
+      </c>
+      <c r="G8" s="12">
+        <v>2087</v>
+      </c>
+      <c r="H8" s="12">
+        <f t="shared" si="0"/>
+        <v>480.01000000000005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" s="8">
+        <v>0.22</v>
+      </c>
+      <c r="G9" s="12">
+        <v>2106</v>
+      </c>
+      <c r="H9" s="12">
+        <f t="shared" si="0"/>
+        <v>463.32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G10" s="12">
+        <v>4330</v>
+      </c>
+      <c r="H10" s="12">
+        <f t="shared" si="0"/>
+        <v>606.20000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F11" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G11" s="12">
+        <v>4521</v>
+      </c>
+      <c r="H11" s="12">
+        <f t="shared" si="0"/>
+        <v>587.73</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G12" s="12">
+        <v>4446</v>
+      </c>
+      <c r="H12" s="12">
+        <f t="shared" si="0"/>
+        <v>577.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G13" s="12">
+        <v>4428</v>
+      </c>
+      <c r="H13" s="12">
+        <f t="shared" si="0"/>
+        <v>619.92000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F14" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="G14" s="12">
+        <v>4639</v>
+      </c>
+      <c r="H14" s="12">
+        <f t="shared" si="0"/>
+        <v>649.46</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="G15" s="12">
+        <v>4568</v>
+      </c>
+      <c r="H15" s="12">
+        <f t="shared" si="0"/>
+        <v>593.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F16" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G16" s="12">
+        <v>4504</v>
+      </c>
+      <c r="H16" s="12">
+        <f t="shared" si="0"/>
+        <v>540.48</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G17" s="12">
+        <v>4621</v>
+      </c>
+      <c r="H17" s="12">
+        <f t="shared" si="0"/>
+        <v>554.52</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F18" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G18" s="12">
+        <v>5005</v>
+      </c>
+      <c r="H18" s="12">
+        <f t="shared" si="0"/>
+        <v>600.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F19" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G19" s="12">
+        <v>5169</v>
+      </c>
+      <c r="H19" s="12">
+        <f t="shared" si="0"/>
+        <v>568.59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G20" s="12">
+        <v>5078</v>
+      </c>
+      <c r="H20" s="12">
+        <f t="shared" si="0"/>
+        <v>558.58000000000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G21" s="12">
+        <v>5224</v>
+      </c>
+      <c r="H21" s="12">
+        <f t="shared" si="0"/>
+        <v>574.64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D22" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F22" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="G22" s="12">
+        <v>5044</v>
+      </c>
+      <c r="H22" s="12">
+        <f t="shared" si="0"/>
+        <v>605.28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G23" s="12">
+        <v>5001</v>
+      </c>
+      <c r="H23" s="12">
+        <f t="shared" si="0"/>
+        <v>550.11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G24" s="12">
+        <v>5159</v>
+      </c>
+      <c r="H24" s="12">
+        <f t="shared" si="0"/>
+        <v>567.49</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="G25" s="12">
+        <v>5256</v>
+      </c>
+      <c r="H25" s="12">
+        <f t="shared" si="0"/>
+        <v>578.16</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="F2" s="12">
+        <v>2085</v>
+      </c>
+      <c r="G2" s="12">
+        <f t="shared" ref="G2:G13" si="0">E2*F2</f>
+        <v>562.95000000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.27</v>
+      </c>
+      <c r="F3" s="12">
+        <v>2139</v>
+      </c>
+      <c r="G3" s="12">
+        <f t="shared" si="0"/>
+        <v>577.53000000000009</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.24</v>
+      </c>
+      <c r="F4" s="12">
+        <v>2056</v>
+      </c>
+      <c r="G4" s="12">
+        <f t="shared" si="0"/>
+        <v>493.44</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.32</v>
+      </c>
+      <c r="F5" s="12">
+        <v>2104</v>
+      </c>
+      <c r="G5" s="12">
+        <f t="shared" si="0"/>
+        <v>673.28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F6" s="12">
+        <v>4366</v>
+      </c>
+      <c r="G6" s="12">
+        <f t="shared" si="0"/>
+        <v>611.24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="F7" s="12">
+        <v>4395</v>
+      </c>
+      <c r="G7" s="12">
+        <f t="shared" si="0"/>
+        <v>571.35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="F8" s="12">
+        <v>4667</v>
+      </c>
+      <c r="G8" s="12">
+        <f t="shared" si="0"/>
+        <v>606.71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.13</v>
+      </c>
+      <c r="F9" s="12">
+        <v>4575</v>
+      </c>
+      <c r="G9" s="12">
+        <f t="shared" si="0"/>
+        <v>594.75</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F10" s="12">
+        <v>4969</v>
+      </c>
+      <c r="G10" s="12">
+        <f t="shared" si="0"/>
+        <v>596.28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F11" s="12">
+        <v>5143</v>
+      </c>
+      <c r="G11" s="12">
+        <f t="shared" si="0"/>
+        <v>617.16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.12</v>
+      </c>
+      <c r="F12" s="12">
+        <v>5079</v>
+      </c>
+      <c r="G12" s="12">
+        <f t="shared" si="0"/>
+        <v>609.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="F13" s="12">
+        <v>5083</v>
+      </c>
+      <c r="G13" s="12">
+        <f t="shared" si="0"/>
+        <v>559.13</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="E1">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="8">
+        <v>2.73</v>
+      </c>
+      <c r="D2" s="12">
+        <v>273</v>
+      </c>
+      <c r="E2" s="12">
+        <f t="shared" ref="E2:E7" si="0">C2*D2</f>
+        <v>745.29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="8">
+        <v>2.66</v>
+      </c>
+      <c r="D3" s="12">
+        <v>248</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" si="0"/>
+        <v>659.68000000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" s="8">
+        <v>1.78</v>
+      </c>
+      <c r="D4" s="12">
+        <v>697</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>1240.6600000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8">
+        <v>1.49</v>
+      </c>
+      <c r="D5" s="12">
+        <v>699</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>1041.51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="8">
+        <v>1.44</v>
+      </c>
+      <c r="D6" s="12">
+        <v>769</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>1107.3599999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="C7" s="8">
+        <v>1.17</v>
+      </c>
+      <c r="D7" s="12">
+        <v>818</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>957.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D1:D1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>